--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_444__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_444__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5417,31 +5417,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>89.17707824707031</c:v>
+                  <c:v>89.17709350585938</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.04244995117188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.21847534179688</c:v>
+                  <c:v>97.21846008300781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.90056991577148</c:v>
+                  <c:v>61.90058135986328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.30930328369141</c:v>
+                  <c:v>27.30930137634277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.32892990112305</c:v>
+                  <c:v>53.32893371582031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.01078796386719</c:v>
+                  <c:v>96.01077270507812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.57420349121094</c:v>
+                  <c:v>97.57418823242188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.74295043945312</c:v>
+                  <c:v>89.74293518066406</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>97.18840026855469</c:v>
@@ -5465,22 +5465,22 @@
                   <c:v>72.12899780273438</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.31961059570312</c:v>
+                  <c:v>74.31962585449219</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.98542785644531</c:v>
+                  <c:v>13.98542976379395</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.2567138671875</c:v>
+                  <c:v>97.25669860839844</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.12777709960938</c:v>
+                  <c:v>78.12776184082031</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.38155364990234</c:v>
+                  <c:v>59.38154602050781</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.61429595947266</c:v>
+                  <c:v>62.61430358886719</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>59.15699768066406</c:v>
@@ -5504,19 +5504,19 @@
                   <c:v>67.86300659179688</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.81915283203125</c:v>
+                  <c:v>97.81916809082031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.00547027587891</c:v>
+                  <c:v>53.00547790527344</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>78.16207885742188</c:v>
+                  <c:v>78.16206359863281</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.19569396972656</c:v>
+                  <c:v>97.1956787109375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.73185729980469</c:v>
+                  <c:v>85.73184204101562</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>83.34977722167969</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>93.36079406738281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.00957489013672</c:v>
+                  <c:v>37.00956726074219</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.95478820800781</c:v>
@@ -5570,16 +5570,16 @@
                   <c:v>86.47029113769531</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>98.0013427734375</c:v>
+                  <c:v>98.00132751464844</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>73.65840148925781</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90.22946166992188</c:v>
+                  <c:v>90.22944641113281</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.45567321777344</c:v>
+                  <c:v>56.45566177368164</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>94.28590393066406</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>74.03923797607422</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53.61244201660156</c:v>
+                  <c:v>53.61243438720703</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.78544616699219</c:v>
@@ -5597,19 +5597,19 @@
                   <c:v>46.32089614868164</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>85.01296997070312</c:v>
+                  <c:v>85.01295471191406</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>97.56988525390625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.41351318359375</c:v>
+                  <c:v>96.41352844238281</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>97.16432189941406</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>86.22677612304688</c:v>
+                  <c:v>86.22679138183594</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>96.46389770507812</c:v>
@@ -5618,7 +5618,7 @@
                   <c:v>89.41595458984375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.01954650878906</c:v>
+                  <c:v>97.01953125</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>62.1173210144043</c:v>
@@ -5639,13 +5639,13 @@
                   <c:v>97.702392578125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.86058235168457</c:v>
+                  <c:v>27.86058044433594</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>64.69490051269531</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.86907958984375</c:v>
+                  <c:v>85.86906433105469</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>57.05072402954102</c:v>
@@ -5657,10 +5657,10 @@
                   <c:v>64.00353240966797</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52.1875114440918</c:v>
+                  <c:v>52.18751907348633</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.27622985839844</c:v>
+                  <c:v>97.27621459960938</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>97.25177001953125</c:v>
@@ -5669,7 +5669,7 @@
                   <c:v>85.54403686523438</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59.56553649902344</c:v>
+                  <c:v>59.5655403137207</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>90.44808959960938</c:v>
@@ -5678,13 +5678,13 @@
                   <c:v>95.65408325195312</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>80.18341064453125</c:v>
+                  <c:v>80.18339538574219</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>79.08753967285156</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>65.84732818603516</c:v>
+                  <c:v>65.84733581542969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>88.3473</v>
       </c>
       <c r="F2">
-        <v>89.17707824707031</v>
+        <v>89.17709350585938</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>97.21847534179688</v>
+        <v>97.21846008300781</v>
       </c>
       <c r="G4">
         <v>107</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>61.90056991577148</v>
+        <v>61.90058135986328</v>
       </c>
       <c r="G5">
         <v>107</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>27.30930328369141</v>
+        <v>27.30930137634277</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>53.32892990112305</v>
+        <v>53.32893371582031</v>
       </c>
       <c r="G7">
         <v>107</v>
@@ -6571,7 +6571,7 @@
         <v>96.3035</v>
       </c>
       <c r="F8">
-        <v>96.01078796386719</v>
+        <v>96.01077270507812</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>97.65470000000001</v>
       </c>
       <c r="F9">
-        <v>97.57420349121094</v>
+        <v>97.57418823242188</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>89.74295043945312</v>
+        <v>89.74293518066406</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>74.31961059570312</v>
+        <v>74.31962585449219</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>13.98542785644531</v>
+        <v>13.98542976379395</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>97.7124</v>
       </c>
       <c r="F20">
-        <v>97.2567138671875</v>
+        <v>97.25669860839844</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>80.21729999999999</v>
       </c>
       <c r="F21">
-        <v>78.12777709960938</v>
+        <v>78.12776184082031</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>59.38155364990234</v>
+        <v>59.38154602050781</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>62.61429595947266</v>
+        <v>62.61430358886719</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>97.9363</v>
       </c>
       <c r="F31">
-        <v>97.81915283203125</v>
+        <v>97.81916809082031</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.00547027587891</v>
+        <v>53.00547790527344</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>80.55459999999999</v>
       </c>
       <c r="F33">
-        <v>78.16207885742188</v>
+        <v>78.16206359863281</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.19569396972656</v>
+        <v>97.1956787109375</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>85.73185729980469</v>
+        <v>85.73184204101562</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>37.00957489013672</v>
+        <v>37.00956726074219</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>98.0013427734375</v>
+        <v>98.00132751464844</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>90.22946166992188</v>
+        <v>90.22944641113281</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>56.45567321777344</v>
+        <v>56.45566177368164</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>53.61244201660156</v>
+        <v>53.61243438720703</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>85.01296997070312</v>
+        <v>85.01295471191406</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.41351318359375</v>
+        <v>96.41352844238281</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>86.22677612304688</v>
+        <v>86.22679138183594</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>97.4348</v>
       </c>
       <c r="F69">
-        <v>97.01954650878906</v>
+        <v>97.01953125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.86058235168457</v>
+        <v>27.86058044433594</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F78">
-        <v>85.86907958984375</v>
+        <v>85.86906433105469</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>52.1875114440918</v>
+        <v>52.18751907348633</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.27622985839844</v>
+        <v>97.27621459960938</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>59.56553649902344</v>
+        <v>59.5655403137207</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>80.2504</v>
       </c>
       <c r="F89">
-        <v>80.18341064453125</v>
+        <v>80.18339538574219</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>65.84732818603516</v>
+        <v>65.84733581542969</v>
       </c>
     </row>
     <row r="92" spans="1:6">
